--- a/Data/Eltex Weaponry - 2913538990/2913538990.xlsx
+++ b/Data/Eltex Weaponry - 2913538990/2913538990.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.6.2\Eltex Weaponry - 2913538990\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\RMK\Data\Eltex Weaponry - 2913538990\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8C292-4715-4876-9598-8E8E3CFA9116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A0214-36CF-44EE-80AE-A02928132FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_240402" sheetId="1" r:id="rId1"/>
+    <sheet name="Main_240430" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="208">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -65,484 +65,619 @@
     <t>eltex pistol bolt</t>
   </si>
   <si>
+    <t>엘텍스 권총 에너지탄</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexPistol.label</t>
+  </si>
+  <si>
+    <t>eltex pistol</t>
+  </si>
+  <si>
+    <t>엘텍스 권총</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexPistol.description</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexPistol.description</t>
+  </si>
+  <si>
+    <t>A psychic sidearm of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 4 damage that doesn't scale with psychic sensitivity.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexPistol.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexPistol.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexPistol.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexPistol.tools.0.label</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>손잡이</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexPistol.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexPistol.tools.1.label</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>총열</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Bullet_EltexSMG.label</t>
+  </si>
+  <si>
+    <t>EW_Bullet_EltexSMG.label</t>
+  </si>
+  <si>
+    <t>eltex SMG bolt</t>
+  </si>
+  <si>
+    <t>엘텍스 기관단총 에너지탄</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexSMG.label</t>
+  </si>
+  <si>
+    <t>eltex SMG</t>
+  </si>
+  <si>
+    <t>엘텍스 기관단총</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexSMG.description</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexSMG.description</t>
+  </si>
+  <si>
+    <t>A compact psychic firearm of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 4 damage that doesn't scale with psychic sensitivity.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexSMG.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexSMG.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexSMG.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexSMG.tools.0.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexSMG.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexSMG.tools.1.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Bullet_EltexRifle.label</t>
+  </si>
+  <si>
+    <t>EW_Bullet_EltexRifle.label</t>
+  </si>
+  <si>
+    <t>eltex rifle bolt</t>
+  </si>
+  <si>
+    <t>엘텍스 소총 에너지탄</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexRifle.label</t>
+  </si>
+  <si>
+    <t>eltex rifle</t>
+  </si>
+  <si>
+    <t>엘텍스 소총</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexRifle.description</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexRifle.description</t>
+  </si>
+  <si>
+    <t>A psychic rifle of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 5 damage that doesn't scale with psychic sensitivity.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexRifle.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexRifle.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexRifle.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexRifle.tools.0.label</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>개머리판</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexRifle.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexRifle.tools.1.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Bullet_EltexLance.label</t>
+  </si>
+  <si>
+    <t>EW_Bullet_EltexLance.label</t>
+  </si>
+  <si>
+    <t>eltex lance bolt</t>
+  </si>
+  <si>
+    <t>엘텍스 랜스 에너지탄</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexLance.label</t>
+  </si>
+  <si>
+    <t>eltex lance</t>
+  </si>
+  <si>
+    <t>엘텍스 랜스</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexLance.description</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexLance.description</t>
+  </si>
+  <si>
+    <t>A long range, powerful weapon of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 15 damage that doesn't scale with psychic sensitivity.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexLance.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexLance.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexLance.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexLance.tools.0.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_EltexLance.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_EltexLance.tools.1.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Melee_EltexWarmace.label</t>
+  </si>
+  <si>
+    <t>EW_Melee_EltexWarmace.label</t>
+  </si>
+  <si>
+    <t>eltex warmace</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Melee_EltexWarmace.description</t>
+  </si>
+  <si>
+    <t>EW_Melee_EltexWarmace.description</t>
+  </si>
+  <si>
+    <t>A psychic warmace of ultratech design. Using an array of sophisticated eltex lenses embedded in its handle, the weapon is able to magnify psychic power and project it into an energy field around its head that grows in power the more psychically sensitive the wielder is. However, the generated psychic field wanes when hitting psychically dull foes such as mechanoids due to psychic field dissonance between its wielder and target.\n\nEach attack deals additional 7 damage that doesn't scale with psychic sensitivity.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Melee_EltexWarmace.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Melee_EltexWarmace.tools.0.label</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Melee_EltexWarmace.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Melee_EltexWarmace.tools.1.label</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>ResearchProjectDef+EW_EltexWeaponry.label</t>
+  </si>
+  <si>
+    <t>ResearchProjectDef</t>
+  </si>
+  <si>
+    <t>EW_EltexWeaponry.label</t>
+  </si>
+  <si>
+    <t>Eltex Weaponry</t>
+  </si>
+  <si>
+    <t>엘텍스 무기</t>
+  </si>
+  <si>
+    <t>ResearchProjectDef+EW_EltexWeaponry.description</t>
+  </si>
+  <si>
+    <t>EW_EltexWeaponry.description</t>
+  </si>
+  <si>
+    <t>Build weapons that utilize eltex capacitors and lenses to grow more powerful the higher the psy-sensittivity of their wielder and their target.</t>
+  </si>
+  <si>
+    <t>엘텍스 커패시터와 렌즈를 활용하여 사용자와 목표물의 정신 감응력에 비례하는 위력을 낼 수 있는 무기를 개발합니다.</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexPistol.label</t>
+  </si>
+  <si>
+    <t>Royalty</t>
+  </si>
+  <si>
+    <t>persona eltex pistol</t>
+  </si>
+  <si>
+    <t>결속 엘텍스 권총</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexPistol.description</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexPistol.description</t>
+  </si>
+  <si>
+    <t>A psychic sidearm of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 4 damage that doesn't scale with psychic sensitivity.\n\nThis weapon has an onboard persona that can bond to only a single person. The wielder and intelligent weapon can synchronize their reflexes and attack with frightening speed, accuracy, and creativity. Once bonded to a wielder, the weapon's persona will refuse to be wielded by anyone else.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexPistol.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexPistol.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexPistol.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexPistol.tools.0.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexPistol.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexPistol.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexSMG.label</t>
+  </si>
+  <si>
+    <t>persona eltex SMG</t>
+  </si>
+  <si>
+    <t>결속 엘텍스 기관단총</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexSMG.description</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexSMG.description</t>
+  </si>
+  <si>
+    <t>A compact psychic firearm of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 4 damage that doesn't scale with psychic sensitivity.\n\nThis weapon has an onboard persona that can bond to only a single person. The wielder and intelligent weapon can synchronize their reflexes and attack with frightening speed, accuracy, and creativity. Once bonded to a wielder, the weapon's persona will refuse to be wielded by anyone else.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexSMG.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexSMG.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexSMG.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexSMG.tools.0.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexSMG.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexSMG.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexRifle.label</t>
+  </si>
+  <si>
+    <t>persona eltex rifle</t>
+  </si>
+  <si>
+    <t>결속 엘텍스 소총</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexRifle.description</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexRifle.description</t>
+  </si>
+  <si>
+    <t>A psychic rifle of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 5 damage that doesn't scale with psychic sensitivity.\n\nThis weapon has an onboard persona that can bond to only a single person. The wielder and intelligent weapon can synchronize their reflexes and attack with frightening speed, accuracy, and creativity. Once bonded to a wielder, the weapon's persona will refuse to be wielded by anyone else.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexRifle.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexRifle.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexRifle.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexRifle.tools.0.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexRifle.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexRifle.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexLance.label</t>
+  </si>
+  <si>
+    <t>persona eltex lance</t>
+  </si>
+  <si>
+    <t>결속 엘텍스 랜스</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexLance.description</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexLance.description</t>
+  </si>
+  <si>
+    <t>A long range, powerful weapon of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 15 damage that doesn't scale with psychic sensitivity.\n\nThis weapon has an onboard persona that can bond to only a single person. The wielder and intelligent weapon can synchronize their reflexes and attack with frightening speed, accuracy, and creativity. Once bonded to a wielder, the weapon's persona will refuse to be wielded by anyone else.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexLance.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexLance.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexLance.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexLance.tools.0.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Gun_PersonaEltexLance.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Gun_PersonaEltexLance.tools.1.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Melee_PersonaEltexWarmace.label</t>
+  </si>
+  <si>
+    <t>EW_Melee_PersonaEltexWarmace.label</t>
+  </si>
+  <si>
+    <t>persona eltex warmace</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Melee_PersonaEltexWarmace.description</t>
+  </si>
+  <si>
+    <t>EW_Melee_PersonaEltexWarmace.description</t>
+  </si>
+  <si>
+    <t>A psychic warmace of ultratech design. Using an array of sophisticated eltex lenses embedded in its handle, the weapon is able to magnify psychic power and project it into an energy field around its head that grows in power the more psychically sensitive the wielder is. However, the generated psychic field wanes when cutting into psychically dull foes such as mechanoids due to psychic field dissonance between its wielder and target.\n\nEach attack deals additional 7 damage that doesn't scale with psychic sensitivity.\n\nThis weapon has an onboard persona that can bond to only a single person. The wielder and intelligent weapon can synchronize their reflexes and attack with frightening speed, accuracy, and creativity. Once bonded to a wielder, the weapon's persona will refuse to be wielded by anyone else.</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Melee_PersonaEltexWarmace.tools.0.label</t>
+  </si>
+  <si>
+    <t>EW_Melee_PersonaEltexWarmace.tools.0.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_Melee_PersonaEltexWarmace.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_Melee_PersonaEltexWarmace.tools.1.label</t>
+  </si>
+  <si>
+    <t>EW_WC_EltexGreatsword.label</t>
+  </si>
+  <si>
+    <t>Vanilla Factions Expanded - Pirates</t>
+  </si>
+  <si>
+    <t>warcasket eltex greatsword</t>
+  </si>
+  <si>
+    <t>EW_WC_EltexGreatsword.description</t>
+  </si>
+  <si>
+    <t>A giant ultratech sword made for warcasket use. Using an array of sophisticated eltex lenses embedded in its hilt, the weapon is able to magnify psychic power and project it into an energy field around its blade that grows in power the more psychically sensitive the wielder is. However, the generated psychic field wanes when cutting into psychically dull foes such as mechanoids due to psychic field dissonance between its wielder and target.\n\nEach attack deals additional 15 damage that doesn't scale with psychic sensitivity.</t>
+  </si>
+  <si>
+    <t>EW_WC_EltexGreatsword.tools.0.label</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>EW_WC_EltexGreatsword.tools.1.label</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>EW_WC_EltexGreatsword_OnFloor.label</t>
+  </si>
+  <si>
+    <t>EW_WC_EltexGreatsword_OnFloor.description</t>
+  </si>
+  <si>
+    <t>추</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 정신계 워메이스입니다. 손잡이에 내장된 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 증폭시켜 추 부분에 사용자의 정신 감응력에 비례하는 강도의 에너지 장을 투사할 수 있습니다. 그러나 생성된 정신력 장은 사용자와 대상 사이의 정신력 장 부조화 현상으로 인해 메카노이드와 같은 정신적으로 둔감한 적을 상대할 때는 약화됩니다.\n\n각 공격은 정신 감응력에 비례하지 않는 7만큼의 고정 피해를 추가로 입힙니다.\n\n결속 무기는 자아를 지니고 있으며 오직 한 사람의 주인만 인정합니다. 무기 자아는 사용자의 신속성, 정확성, 분석력을 가속하여 적을 유린할 수 있게 합니다. 주인이 아닌 자는 사용할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>결속 엘텍스 워메이스</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 위력적인 장거리 무기입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 15만큼의 고정 피해를 추가로 입힙니다.\n\n결속 무기는 자아를 지니고 있으며 오직 한 사람의 주인만 인정합니다. 무기 자아는 사용자의 신속성, 정확성, 분석력을 가속하여 적을 유린할 수 있게 합니다. 주인이 아닌 자는 사용할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 정신계 소총입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 5만큼의 고정 피해를 추가로 입힙니다.\n\n결속 무기는 자아를 지니고 있으며 오직 한 사람의 주인만 인정합니다. 무기 자아는 사용자의 신속성, 정확성, 분석력을 가속하여 적을 유린할 수 있게 합니다. 주인이 아닌 자는 사용할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 조밀한 구조의 정신계 화기입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 4만큼의 고정 피해를 추가로 입힙니다.\n\n결속 무기는 자아를 지니고 있으며 오직 한 사람의 주인만 인정합니다. 무기 자아는 사용자의 신속성, 정확성, 분석력을 가속하여 적을 유린할 수 있게 합니다. 주인이 아닌 자는 사용할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 정신계 부무장입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 4만큼의 고정 피해를 추가로 입힙니다.\n\n결속 무기는 자아를 지니고 있으며 오직 한 사람의 주인만 인정합니다. 무기 자아는 사용자의 신속성, 정확성, 분석력을 가속하여 적을 유린할 수 있게 합니다. 주인이 아닌 자는 사용할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 정신계 워메이스입니다. 손잡이에 내장된 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 증폭시켜 추 부분에 사용자의 정신 감응력에 비례하는 강도의 에너지 장을 투사할 수 있습니다. 그러나 생성된 정신력 장은 사용자와 대상 사이의 정신력 장 부조화 현상으로 인해 메카노이드와 같은 정신적으로 둔감한 적을 상대할 때는 약화됩니다.\n\n각 공격은 정신 감응력에 비례하지 않는 7만큼의 고정 피해를 추가로 입힙니다.</t>
+  </si>
+  <si>
+    <t>엘텍스 워메이스</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 위력적인 장거리 무기입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 15만큼의 고정 피해를 추가로 입힙니다.</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 정신계 소총입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 5만큼의 고정 피해를 추가로 입힙니다.</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 조밀한 구조의 정신계 화기입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 4만큼의 고정 피해를 추가로 입힙니다.</t>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 정신계 부무장입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 4만큼의 고정 피해를 추가로 입힙니다.</t>
+  </si>
+  <si>
     <t>ThingDef+EW_Gun_EltexPistol.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexPistol.label</t>
-  </si>
-  <si>
-    <t>eltex pistol</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexPistol.description</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexPistol.description</t>
-  </si>
-  <si>
-    <t>A psychic sidearm of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 4 damage that doesn't scale with psychic sensitivity.</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexPistol.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexPistol.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexPistol.tools.0.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexPistol.tools.0.label</t>
-  </si>
-  <si>
-    <t>grip</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexPistol.tools.1.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexPistol.tools.1.label</t>
-  </si>
-  <si>
-    <t>barrel</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Bullet_EltexSMG.label</t>
-  </si>
-  <si>
-    <t>EW_Bullet_EltexSMG.label</t>
-  </si>
-  <si>
-    <t>eltex SMG bolt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{*ThingDef+EW_Gun_EltexPistol.label}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ThingDef+EW_Gun_EltexSMG.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexSMG.label</t>
-  </si>
-  <si>
-    <t>eltex SMG</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexSMG.description</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexSMG.description</t>
-  </si>
-  <si>
-    <t>A compact psychic firearm of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 4 damage that doesn't scale with psychic sensitivity.</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexSMG.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexSMG.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexSMG.tools.0.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexSMG.tools.0.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexSMG.tools.1.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexSMG.tools.1.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Bullet_EltexRifle.label</t>
-  </si>
-  <si>
-    <t>EW_Bullet_EltexRifle.label</t>
-  </si>
-  <si>
-    <t>eltex rifle bolt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{*ThingDef+EW_Gun_EltexSMG.label}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ThingDef+EW_Gun_EltexRifle.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexRifle.label</t>
-  </si>
-  <si>
-    <t>eltex rifle</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexRifle.description</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexRifle.description</t>
-  </si>
-  <si>
-    <t>A psychic rifle of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 5 damage that doesn't scale with psychic sensitivity.</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexRifle.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexRifle.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexRifle.tools.0.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexRifle.tools.0.label</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexRifle.tools.1.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexRifle.tools.1.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Bullet_EltexLance.label</t>
-  </si>
-  <si>
-    <t>EW_Bullet_EltexLance.label</t>
-  </si>
-  <si>
-    <t>eltex lance bolt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{*ThingDef+EW_Gun_EltexRifle.label}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ThingDef+EW_Gun_EltexLance.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexLance.label</t>
-  </si>
-  <si>
-    <t>eltex lance</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexLance.description</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexLance.description</t>
-  </si>
-  <si>
-    <t>A long range, powerful weapon of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 15 damage that doesn't scale with psychic sensitivity.</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexLance.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexLance.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexLance.tools.0.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexLance.tools.0.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_EltexLance.tools.1.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_EltexLance.tools.1.label</t>
-  </si>
-  <si>
-    <t>ResearchProjectDef+EW_EltexWeaponry.label</t>
-  </si>
-  <si>
-    <t>ResearchProjectDef</t>
-  </si>
-  <si>
-    <t>EW_EltexWeaponry.label</t>
-  </si>
-  <si>
-    <t>Eltex Weaponry</t>
-  </si>
-  <si>
-    <t>ResearchProjectDef+EW_EltexWeaponry.description</t>
-  </si>
-  <si>
-    <t>EW_EltexWeaponry.description</t>
-  </si>
-  <si>
-    <t>Build weapons that utilize eltex capacitors and lenses to grow more powerful the higher the psy-sensittivity of their wielder and their target.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{*ThingDef+EW_Gun_EltexLance.label}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ThingDef+EW_Gun_PersonaEltexPistol.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexPistol.label</t>
-  </si>
-  <si>
-    <t>Royalty</t>
-  </si>
-  <si>
-    <t>persona eltex pistol</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexPistol.description</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexPistol.description</t>
-  </si>
-  <si>
-    <t>A psychic sidearm of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 4 damage that doesn't scale with psychic sensitivity.\n\nThis weapon has an onboard persona that can bond to only a single person. The wielder and intelligent weapon can synchronize their reflexes and attack with frightening speed, accuracy, and creativity. Once bonded to a wielder, the weapon's persona will refuse to be wielded by anyone else.</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexPistol.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexPistol.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexPistol.tools.0.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexPistol.tools.0.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexPistol.tools.1.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexPistol.tools.1.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{*ThingDef+EW_Gun_PersonaEltexPistol.label}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ThingDef+EW_Gun_PersonaEltexSMG.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexSMG.label</t>
-  </si>
-  <si>
-    <t>persona eltex SMG</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexSMG.description</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexSMG.description</t>
-  </si>
-  <si>
-    <t>A compact psychic firearm of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 4 damage that doesn't scale with psychic sensitivity.\n\nThis weapon has an onboard persona that can bond to only a single person. The wielder and intelligent weapon can synchronize their reflexes and attack with frightening speed, accuracy, and creativity. Once bonded to a wielder, the weapon's persona will refuse to be wielded by anyone else.</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexSMG.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexSMG.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexSMG.tools.0.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexSMG.tools.0.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexSMG.tools.1.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexSMG.tools.1.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{*ThingDef+EW_Gun_PersonaEltexSMG.label}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ThingDef+EW_Gun_PersonaEltexRifle.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexRifle.label</t>
-  </si>
-  <si>
-    <t>persona eltex rifle</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexRifle.description</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexRifle.description</t>
-  </si>
-  <si>
-    <t>A psychic rifle of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 5 damage that doesn't scale with psychic sensitivity.\n\nThis weapon has an onboard persona that can bond to only a single person. The wielder and intelligent weapon can synchronize their reflexes and attack with frightening speed, accuracy, and creativity. Once bonded to a wielder, the weapon's persona will refuse to be wielded by anyone else.</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexRifle.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexRifle.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexRifle.tools.0.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexRifle.tools.0.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexRifle.tools.1.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexRifle.tools.1.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{*ThingDef+EW_Gun_PersonaEltexRifle.label}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ThingDef+EW_Gun_PersonaEltexLance.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexLance.label</t>
-  </si>
-  <si>
-    <t>persona eltex lance</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexLance.description</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexLance.description</t>
-  </si>
-  <si>
-    <t>A long range, powerful weapon of ultratech design. Through its array of sophisticated eltex lenses, the weapon is capable of magnifying psychic power into a concentrated bolt of energy that grows in power the more psychically sensitive the wielder is. However, the psionic nature of the projectiles is a double edged sword, with psychically dull enemies like mechanoids being able to reduce the damage to a minimum.\n\nEach attack deals additional 15 damage that doesn't scale with psychic sensitivity.\n\nThis weapon has an onboard persona that can bond to only a single person. The wielder and intelligent weapon can synchronize their reflexes and attack with frightening speed, accuracy, and creativity. Once bonded to a wielder, the weapon's persona will refuse to be wielded by anyone else.</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexLance.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexLance.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexLance.tools.0.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexLance.tools.0.label</t>
-  </si>
-  <si>
-    <t>ThingDef+EW_Gun_PersonaEltexLance.tools.1.label</t>
-  </si>
-  <si>
-    <t>EW_Gun_PersonaEltexLance.tools.1.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+EW_WC_EltexGreatsword.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef</t>
-  </si>
-  <si>
-    <t>EW_WC_EltexGreatsword.label</t>
-  </si>
-  <si>
-    <t>Vanilla Factions Expanded - Pirates</t>
-  </si>
-  <si>
-    <t>warcasket eltex greatsword</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+EW_WC_EltexGreatsword.description</t>
-  </si>
-  <si>
-    <t>EW_WC_EltexGreatsword.description</t>
-  </si>
-  <si>
-    <t>A giant ultratech sword made for warcasket use. Using an array of sophisticated eltex lenses embedded in its hilt, the weapon is able to magnify psychic power and project it into an energy field around its blade that grows in power the more psychically sensitive the wielder is. However, the generated psychic field wanes when cutting into psychically dull foes such as mechanoids due to psychic field dissonance between its wielder and target.\n\nEach attack deals additional 15 damage that doesn't scale with psychic sensitivity.</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+EW_WC_EltexGreatsword.tools.0.label</t>
-  </si>
-  <si>
-    <t>EW_WC_EltexGreatsword.tools.0.label</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+EW_WC_EltexGreatsword.tools.1.label</t>
-  </si>
-  <si>
-    <t>EW_WC_EltexGreatsword.tools.1.label</t>
-  </si>
-  <si>
-    <t>blade</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+EW_WC_EltexGreatsword_OnFloor.label</t>
-  </si>
-  <si>
-    <t>EW_WC_EltexGreatsword_OnFloor.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+EW_WC_EltexGreatsword_OnFloor.description</t>
-  </si>
-  <si>
-    <t>EW_WC_EltexGreatsword_OnFloor.description</t>
-  </si>
-  <si>
-    <t>총열</t>
-  </si>
-  <si>
-    <t>개머리판</t>
-  </si>
-  <si>
-    <t>번화계 기술이 적용된 위력적인 장거리 무기입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 15의 고정 피해를 추가로 입힙니다.\n\n결속 무기는 자아를 지니고 있으며 오직 한 사람의 주인만 인정합니다. 무기 자아는 사용자의 신속성, 정확성, 분석력을 가속하여 적을 유린할 수 있게 합니다. 주인이 아닌 자는 사용할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>결속 엘텍스 랜스</t>
-  </si>
-  <si>
-    <t>번화계 기술이 적용된 정신계 소총입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 5의 고정 피해를 추가로 입힙니다.\n\n결속 무기는 자아를 지니고 있으며 오직 한 사람의 주인만 인정합니다. 무기 자아는 사용자의 신속성, 정확성, 분석력을 가속하여 적을 유린할 수 있게 합니다. 주인이 아닌 자는 사용할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>결속 엘텍스 소총</t>
-  </si>
-  <si>
-    <t>손잡이</t>
-  </si>
-  <si>
-    <t>번화계 기술이 적용된 조밀한 구조의 정신계 화기입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 4의 고정 피해를 추가로 입힙니다.\n\n결속 무기는 자아를 지니고 있으며 오직 한 사람의 주인만 인정합니다. 무기 자아는 사용자의 신속성, 정확성, 분석력을 가속하여 적을 유린할 수 있게 합니다. 주인이 아닌 자는 사용할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>결속 엘텍스 기관단총</t>
-  </si>
-  <si>
-    <t>번화계 기술이 적용된 정신계 부무장입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 4의 고정 피해를 추가로 입힙니다.\n\n결속 무기는 자아를 지니고 있으며 오직 한 사람의 주인만 인정합니다. 무기 자아는 사용자의 신속성, 정확성, 분석력을 가속하여 적을 유린할 수 있게 합니다. 주인이 아닌 자는 사용할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>결속 엘텍스 권총</t>
-  </si>
-  <si>
-    <t>번화계 기술이 적용된 위력적인 장거리 무기입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 15의 고정 피해를 추가로 입힙니다.</t>
-  </si>
-  <si>
-    <t>엘텍스 랜스</t>
-  </si>
-  <si>
-    <t>엘텍스 랜스 에너지탄</t>
-  </si>
-  <si>
-    <t>번화계 기술이 적용된 정신계 소총입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 5의 고정 피해를 추가로 입힙니다.</t>
-  </si>
-  <si>
-    <t>엘텍스 소총</t>
-  </si>
-  <si>
-    <t>엘텍스 소총 에너지탄</t>
-  </si>
-  <si>
-    <t>번화계 기술이 적용된 조밀한 구조의 정신계 화기입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 4의 고정 피해를 추가로 입힙니다.</t>
-  </si>
-  <si>
-    <t>엘텍스 기관단총</t>
-  </si>
-  <si>
-    <t>엘텍스 기관단총 에너지탄</t>
-  </si>
-  <si>
-    <t>번화계 기술이 적용된 정신계 부무장입니다. 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 집중시켜 사용자의 정신 감응력에 비례하는 위력을 가진 에너지탄을 사출할 수 있습니다. 하지만 에너지탄의 정신적인 성질은 양날검과 같아, 메카노이드와 같이 정신적으로 둔감한 적에게는 큰 피해를 주지 못합니다.\n\n각 공격은 정신 감응력에 비례하지 않는 4의 고정 피해를 추가로 입힙니다.</t>
-  </si>
-  <si>
-    <t>엘텍스 권총</t>
-  </si>
-  <si>
-    <t>엘텍스 권총 에너지탄</t>
-  </si>
-  <si>
-    <t>엘텍스 커패시터와 렌즈를 활용하여 사용자와 목표물의 정신 감응력에 비례하는 위력을 낼 수 있는 무기를 개발합니다.</t>
-  </si>
-  <si>
-    <t>엘텍스 무기</t>
-  </si>
-  <si>
-    <t/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{*ThingDef+EW_Gun_PersonaEltexLance.label}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워캐스킷 엘텍스 대검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼끝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워캐스킷 엘택스 대검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번화계 기술이 적용된 거대한 워캐스킷용 검입니다. 칼자루에 내장된 정교한 엘텍스 렌즈 배열을 통해 정신적 힘을 증폭시켜 칼날 부분에 사용자의 정신 감응력에 비례하는 강도의 에너지 장을 투사할 수 있습니다. 그러나 생성된 정신력 장은 사용자와 대상 사이의 정신력 장 부조화 현상으로 인해 메카노이드와 같은 정신적으로 둔감한 적을 벨 때는 약화됩니다.\n\n각 공격은 정신 감응력에 비례하지 않는 15만큼의 고정 피해를 추가로 입힙니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+EW_WC_EltexGreatsword.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_WC_EltexGreatsword.description</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_WC_EltexGreatsword.tools.0.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_WC_EltexGreatsword.tools.1.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_WC_EltexGreatsword_OnFloor.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EW_WC_EltexGreatsword_OnFloor.description</t>
   </si>
 </sst>
 </file>
@@ -894,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -906,8 +1041,8 @@
     <col min="2" max="2" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="64.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.453125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
@@ -945,12 +1080,12 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -962,935 +1097,1083 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
